--- a/Annual_V2_octnow.xlsx
+++ b/Annual_V2_octnow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3788c24686780f/Escritorio/Nissan/Dashboard_NIBU/Vistas anteriores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3788c24686780f/Escritorio/Nissan/Dashboard_NIBU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6EFBBC1E-E11D-48A9-9603-177529F04DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{175AEC02-097F-4579-8130-DEFAC37E1104}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6EFBBC1E-E11D-48A9-9603-177529F04DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BED49FB-CD5A-496F-85B3-A059993301BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="7" xr2:uid="{53836420-D36C-410F-ABBE-B356CDD75E29}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="237">
   <si>
     <t>Porcentaje de Cumplimiento por KPI</t>
   </si>
@@ -2408,17 +2408,14 @@
     <xf numFmtId="9" fontId="28" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2432,11 +2429,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2447,16 +2459,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,9 +2480,6 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2487,6 +2487,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2504,15 +2513,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2521,6 +2521,671 @@
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="83">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3178,96 +3843,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -3293,581 +3868,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3882,35 +3882,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A929B33-10C4-4C38-A1F2-7DEE7422671E}" name="Table13" displayName="Table13" ref="D4:Z19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A929B33-10C4-4C38-A1F2-7DEE7422671E}" name="Table13" displayName="Table13" ref="D4:Z19" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="D4:Z19" xr:uid="{8A929B33-10C4-4C38-A1F2-7DEE7422671E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:Z19">
     <sortCondition ref="D4:D19"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{6D7C1C3B-662B-425E-A878-F9CAB1E70736}" name="Market" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{3E76D9A8-1C8F-4558-AE62-4B3F0856D8CA}" name="CSI" dataDxfId="21" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" xr3:uid="{9766C087-6359-4C97-B8F1-CABA684DFD28}" name="SSI" dataDxfId="20" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{E7710399-A390-4299-8E23-454C6FF33E33}" name="NRC" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{8ADF3CBF-360D-414E-A138-A7E6A1CB0ABC}" name="Training" dataDxfId="18" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{C403ABBD-470C-465D-9967-CAD7A6A6FC16}" name="Ser. Campaign" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{ED0D1BDF-C968-4040-B227-690D12802A53}" name="Lead Mng." dataDxfId="16" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{678A70D5-08C0-4475-B151-1FDA122F2B43}" name="Share of Inv." dataDxfId="15" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{490A077C-B1CF-4420-8C36-4602BC980D67}" name="Game Plan" dataDxfId="14" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{A699BB08-E665-4172-AA6A-A3DEC7DC58CF}" name="Sell In" dataDxfId="13" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{22F33692-9BAE-4539-9E15-368AF8388AB9}" name="Retention" dataDxfId="12" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{A4E850D2-F565-4FE8-9450-CBF306602D13}" name="Retail Sales" dataDxfId="11" dataCellStyle="Porcentaje"/>
-    <tableColumn id="13" xr3:uid="{9D3B6FD9-5B09-4ADF-9C1E-2CB78DED9062}" name="Achievement" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{88B3BF16-EF28-4334-9860-6A690884430A}" name="Target CSI" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{74F1A6D8-1574-424A-8FBA-BDD9FD54BE58}" name="Target SSI" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="16" xr3:uid="{88C8D29C-D556-47B8-91C3-C9CE29FFA0B8}" name="Target Sell-In" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{5596719A-00D9-41C2-848E-BE70E9C99C91}" name="Target Retention" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{87A9E838-1E8C-4EA3-BBEE-6C98D70B1157}" name="Real-Retention" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{698DB94E-F672-4126-AD8F-BF2BD7D1DFA2}" name="Target Sell-In2" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{FDAA6523-49E3-49AC-BA70-FFA3A71767DA}" name="Real Sell-In" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{9A3B62A2-DF3B-4B40-8638-2E456228F9F2}" name="NSC-Target" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="20" xr3:uid="{2A46E5C8-24CF-488C-BF9C-454EEEFBEC0E}" name="NSC-Sep" dataDxfId="1" dataCellStyle="Porcentaje"/>
-    <tableColumn id="23" xr3:uid="{C69672CD-67B0-4C33-B5A3-888DFDC9BD24}" name="NRC-Imp" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6D7C1C3B-662B-425E-A878-F9CAB1E70736}" name="Market" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3E76D9A8-1C8F-4558-AE62-4B3F0856D8CA}" name="CSI" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" xr3:uid="{9766C087-6359-4C97-B8F1-CABA684DFD28}" name="SSI" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{E7710399-A390-4299-8E23-454C6FF33E33}" name="NRC" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{8ADF3CBF-360D-414E-A138-A7E6A1CB0ABC}" name="Training" dataDxfId="79" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{C403ABBD-470C-465D-9967-CAD7A6A6FC16}" name="Ser. Campaign" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{ED0D1BDF-C968-4040-B227-690D12802A53}" name="Lead Mng." dataDxfId="77" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{678A70D5-08C0-4475-B151-1FDA122F2B43}" name="Share of Inv." dataDxfId="76" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{490A077C-B1CF-4420-8C36-4602BC980D67}" name="Game Plan" dataDxfId="75" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{A699BB08-E665-4172-AA6A-A3DEC7DC58CF}" name="Sell In" dataDxfId="74" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{22F33692-9BAE-4539-9E15-368AF8388AB9}" name="Retention" dataDxfId="73" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{A4E850D2-F565-4FE8-9450-CBF306602D13}" name="Retail Sales" dataDxfId="72" dataCellStyle="Porcentaje"/>
+    <tableColumn id="13" xr3:uid="{9D3B6FD9-5B09-4ADF-9C1E-2CB78DED9062}" name="Achievement" dataDxfId="71"/>
+    <tableColumn id="14" xr3:uid="{88B3BF16-EF28-4334-9860-6A690884430A}" name="Target CSI" dataDxfId="70"/>
+    <tableColumn id="15" xr3:uid="{74F1A6D8-1574-424A-8FBA-BDD9FD54BE58}" name="Target SSI" dataDxfId="69" dataCellStyle="Porcentaje"/>
+    <tableColumn id="16" xr3:uid="{88C8D29C-D556-47B8-91C3-C9CE29FFA0B8}" name="Target Sell-In" dataDxfId="68"/>
+    <tableColumn id="18" xr3:uid="{5596719A-00D9-41C2-848E-BE70E9C99C91}" name="Target Retention" dataDxfId="67"/>
+    <tableColumn id="19" xr3:uid="{87A9E838-1E8C-4EA3-BBEE-6C98D70B1157}" name="Real-Retention" dataDxfId="66"/>
+    <tableColumn id="21" xr3:uid="{698DB94E-F672-4126-AD8F-BF2BD7D1DFA2}" name="Target Sell-In2" dataDxfId="65"/>
+    <tableColumn id="22" xr3:uid="{FDAA6523-49E3-49AC-BA70-FFA3A71767DA}" name="Real Sell-In" dataDxfId="64"/>
+    <tableColumn id="17" xr3:uid="{9A3B62A2-DF3B-4B40-8638-2E456228F9F2}" name="NSC-Target" dataDxfId="63" dataCellStyle="Porcentaje"/>
+    <tableColumn id="20" xr3:uid="{2A46E5C8-24CF-488C-BF9C-454EEEFBEC0E}" name="NSC-Sep" dataDxfId="62" dataCellStyle="Porcentaje"/>
+    <tableColumn id="23" xr3:uid="{C69672CD-67B0-4C33-B5A3-888DFDC9BD24}" name="NRC-Imp" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6774,14 +6774,14 @@
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="290" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="279"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="292"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="214">
@@ -6799,7 +6799,7 @@
       <c r="G3" s="287">
         <v>0.04</v>
       </c>
-      <c r="H3" s="292"/>
+      <c r="H3" s="295"/>
     </row>
     <row r="4" spans="3:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="204" t="s">
@@ -6814,10 +6814,10 @@
       <c r="F4" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="286" t="s">
+      <c r="G4" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="291"/>
+      <c r="H4" s="294"/>
     </row>
     <row r="5" spans="3:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="246">
@@ -6854,11 +6854,11 @@
     <row r="6" spans="3:15" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:15" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="280" t="s">
+      <c r="D8" s="281" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="281"/>
-      <c r="F8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="283"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D9" s="217">
@@ -6896,11 +6896,11 @@
     <row r="12" spans="3:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="3:15" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="283" t="s">
+      <c r="D14" s="284" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="284"/>
-      <c r="F14" s="285"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="286"/>
     </row>
     <row r="15" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="241">
@@ -6937,18 +6937,18 @@
     </row>
     <row r="18" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="293" t="s">
+      <c r="D19" s="296" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="293"/>
-      <c r="F19" s="293"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
     </row>
     <row r="20" spans="4:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="290">
+      <c r="D20" s="293">
         <v>0.88896254810644371</v>
       </c>
-      <c r="E20" s="290"/>
-      <c r="F20" s="290"/>
+      <c r="E20" s="293"/>
+      <c r="F20" s="293"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6994,50 +6994,50 @@
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="294" t="s">
+      <c r="C4" s="297" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294" t="s">
+      <c r="D4" s="297"/>
+      <c r="E4" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294" t="s">
+      <c r="F4" s="297"/>
+      <c r="G4" s="297" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294" t="s">
+      <c r="H4" s="297"/>
+      <c r="I4" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="294"/>
-      <c r="K4" s="294" t="s">
+      <c r="J4" s="297"/>
+      <c r="K4" s="297" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="294"/>
-      <c r="M4" s="294" t="s">
+      <c r="L4" s="297"/>
+      <c r="M4" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="294"/>
-      <c r="O4" s="294" t="s">
+      <c r="N4" s="297"/>
+      <c r="O4" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="294"/>
-      <c r="Q4" s="294" t="s">
+      <c r="P4" s="297"/>
+      <c r="Q4" s="297" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="294"/>
-      <c r="S4" s="294" t="s">
+      <c r="R4" s="297"/>
+      <c r="S4" s="297" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294" t="s">
+      <c r="T4" s="297"/>
+      <c r="U4" s="297" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="294"/>
-      <c r="W4" s="294" t="s">
+      <c r="V4" s="297"/>
+      <c r="W4" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="294"/>
+      <c r="X4" s="297"/>
     </row>
     <row r="5" spans="2:24" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="118" t="s">
@@ -7254,17 +7254,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C7">
     <cfRule type="iconSet" priority="12">
@@ -7471,25 +7471,25 @@
       </c>
     </row>
     <row r="3" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="263" t="s">
+      <c r="C3" s="272" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="263" t="s">
+      <c r="D3" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="263" t="s">
+      <c r="E3" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="265" t="s">
+      <c r="F3" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="265" t="s">
+      <c r="G3" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="265" t="s">
+      <c r="H3" s="270" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -7507,17 +7507,17 @@
       <c r="N3">
         <v>5</v>
       </c>
-      <c r="S3" s="267" t="s">
+      <c r="S3" s="266" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="267"/>
-      <c r="U3" s="267"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="267" t="s">
+      <c r="W3" s="266" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="267"/>
-      <c r="Y3" s="267"/>
+      <c r="X3" s="266"/>
+      <c r="Y3" s="266"/>
       <c r="AA3">
         <v>1</v>
       </c>
@@ -7527,23 +7527,23 @@
       <c r="AC3">
         <v>3</v>
       </c>
-      <c r="AE3" s="268" t="s">
+      <c r="AE3" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="268"/>
-      <c r="AG3" s="268"/>
-      <c r="AH3" s="268"/>
-      <c r="AK3" s="270" t="s">
+      <c r="AF3" s="267"/>
+      <c r="AG3" s="267"/>
+      <c r="AH3" s="267"/>
+      <c r="AK3" s="269" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="270"/>
-      <c r="AM3" s="270"/>
-      <c r="AN3" s="269" t="s">
+      <c r="AL3" s="269"/>
+      <c r="AM3" s="269"/>
+      <c r="AN3" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="269"/>
-      <c r="AP3" s="269"/>
-      <c r="AQ3" s="269"/>
+      <c r="AO3" s="268"/>
+      <c r="AP3" s="268"/>
+      <c r="AQ3" s="268"/>
       <c r="AT3">
         <v>1</v>
       </c>
@@ -7573,13 +7573,13 @@
       </c>
     </row>
     <row r="4" spans="2:54" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
       <c r="J4" s="20" t="s">
         <v>1</v>
       </c>
@@ -11110,28 +11110,28 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="263" t="s">
+      <c r="B56" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="265" t="s">
+      <c r="C56" s="270" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="265" t="s">
+      <c r="D56" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="265" t="s">
+      <c r="E56" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="265" t="s">
+      <c r="F56" s="270" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="264"/>
-      <c r="C57" s="266"/>
-      <c r="D57" s="266"/>
-      <c r="E57" s="266"/>
-      <c r="F57" s="266"/>
+      <c r="B57" s="273"/>
+      <c r="C57" s="271"/>
+      <c r="D57" s="271"/>
+      <c r="E57" s="271"/>
+      <c r="F57" s="271"/>
       <c r="I57" s="12" t="s">
         <v>91</v>
       </c>
@@ -11734,39 +11734,39 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <conditionalFormatting sqref="O18">
-    <cfRule type="cellIs" dxfId="82" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="lessThan">
       <formula>0.88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:T36">
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH19">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11840,34 +11840,34 @@
       </c>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="263" t="s">
+      <c r="C3" s="272" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="265" t="s">
+      <c r="D3" s="270" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="263" t="s">
+      <c r="E3" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="265" t="s">
+      <c r="F3" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="265" t="s">
+      <c r="G3" s="270" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="265" t="s">
+      <c r="H3" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="265" t="s">
+      <c r="I3" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="265" t="s">
+      <c r="J3" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="265" t="s">
+      <c r="K3" s="270" t="s">
         <v>93</v>
       </c>
       <c r="AB3" s="20" t="s">
@@ -11899,16 +11899,16 @@
       </c>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="271"/>
       <c r="M4" s="102" t="s">
         <v>34</v>
       </c>
@@ -16565,16 +16565,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19078,17 +19078,17 @@
       <c r="L1" s="11">
         <v>7</v>
       </c>
-      <c r="AI1" s="271" t="s">
+      <c r="AI1" s="274" t="s">
         <v>154</v>
       </c>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="271"/>
-      <c r="AL1" s="271"/>
-      <c r="AM1" s="271"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="271"/>
-      <c r="AP1" s="271"/>
-      <c r="AQ1" s="271"/>
+      <c r="AJ1" s="274"/>
+      <c r="AK1" s="274"/>
+      <c r="AL1" s="274"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="274"/>
+      <c r="AO1" s="274"/>
+      <c r="AP1" s="274"/>
+      <c r="AQ1" s="274"/>
     </row>
     <row r="2" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B2" s="131" t="s">
@@ -19121,12 +19121,12 @@
       <c r="L2" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="271" t="s">
+      <c r="N2" s="274" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="271"/>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
+      <c r="O2" s="274"/>
+      <c r="P2" s="274"/>
+      <c r="Q2" s="274"/>
       <c r="S2" s="11">
         <v>1</v>
       </c>
@@ -19209,14 +19209,14 @@
       <c r="AB3" s="11">
         <v>7</v>
       </c>
-      <c r="AC3" s="268" t="s">
+      <c r="AC3" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" s="268"/>
-      <c r="AE3" s="272" t="s">
+      <c r="AD3" s="267"/>
+      <c r="AE3" s="275" t="s">
         <v>162</v>
       </c>
-      <c r="AF3" s="272"/>
+      <c r="AF3" s="275"/>
       <c r="AI3" s="11">
         <v>1</v>
       </c>
@@ -19326,64 +19326,64 @@
       <c r="T4" s="27">
         <v>0.96701655572623324</v>
       </c>
-      <c r="V4" s="263" t="s">
+      <c r="V4" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="265" t="s">
+      <c r="W4" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="265" t="s">
+      <c r="X4" s="270" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="265" t="s">
+      <c r="Y4" s="270" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="265" t="s">
+      <c r="Z4" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" s="265" t="s">
+      <c r="AA4" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="265" t="s">
+      <c r="AB4" s="270" t="s">
         <v>165</v>
       </c>
-      <c r="AC4" s="265" t="s">
+      <c r="AC4" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" s="265" t="s">
+      <c r="AD4" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="265" t="s">
+      <c r="AE4" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" s="265" t="s">
+      <c r="AF4" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AI4" s="263" t="s">
+      <c r="AI4" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="263" t="s">
+      <c r="AJ4" s="272" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="265" t="s">
+      <c r="AK4" s="270" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="265" t="s">
+      <c r="AL4" s="270" t="s">
         <v>165</v>
       </c>
-      <c r="AM4" s="265" t="s">
+      <c r="AM4" s="270" t="s">
         <v>89</v>
       </c>
-      <c r="AN4" s="265" t="s">
+      <c r="AN4" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="265" t="s">
+      <c r="AO4" s="270" t="s">
         <v>165</v>
       </c>
-      <c r="AP4" s="265" t="s">
+      <c r="AP4" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="265" t="s">
+      <c r="AQ4" s="270" t="s">
         <v>93</v>
       </c>
       <c r="AR4" s="163"/>
@@ -19494,26 +19494,26 @@
       <c r="T5" s="27">
         <v>0</v>
       </c>
-      <c r="V5" s="264"/>
-      <c r="W5" s="266"/>
-      <c r="X5" s="266"/>
-      <c r="Y5" s="266"/>
-      <c r="Z5" s="266"/>
-      <c r="AA5" s="266"/>
-      <c r="AB5" s="266"/>
-      <c r="AC5" s="266"/>
-      <c r="AD5" s="266"/>
-      <c r="AE5" s="266"/>
-      <c r="AF5" s="266"/>
-      <c r="AI5" s="264"/>
-      <c r="AJ5" s="264"/>
-      <c r="AK5" s="266"/>
-      <c r="AL5" s="266"/>
-      <c r="AM5" s="266"/>
-      <c r="AN5" s="266"/>
-      <c r="AO5" s="266"/>
-      <c r="AP5" s="266"/>
-      <c r="AQ5" s="266"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="271"/>
+      <c r="X5" s="271"/>
+      <c r="Y5" s="271"/>
+      <c r="Z5" s="271"/>
+      <c r="AA5" s="271"/>
+      <c r="AB5" s="271"/>
+      <c r="AC5" s="271"/>
+      <c r="AD5" s="271"/>
+      <c r="AE5" s="271"/>
+      <c r="AF5" s="271"/>
+      <c r="AI5" s="273"/>
+      <c r="AJ5" s="273"/>
+      <c r="AK5" s="271"/>
+      <c r="AL5" s="271"/>
+      <c r="AM5" s="271"/>
+      <c r="AN5" s="271"/>
+      <c r="AO5" s="271"/>
+      <c r="AP5" s="271"/>
+      <c r="AQ5" s="271"/>
       <c r="AR5" s="163"/>
       <c r="AT5" s="14" t="s">
         <v>13</v>
@@ -25027,17 +25027,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AI1:AQ1"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AE3:AF3"/>
@@ -25051,9 +25040,20 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="J41:J73">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25121,26 +25121,26 @@
         <v>12</v>
       </c>
       <c r="N3"/>
-      <c r="AD3" s="273" t="s">
+      <c r="AD3" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273" t="s">
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="273"/>
-      <c r="AH3" s="274" t="s">
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="275"/>
-      <c r="AJ3" s="273" t="s">
+      <c r="AI3" s="279"/>
+      <c r="AJ3" s="277" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="273"/>
-      <c r="AL3" s="273" t="s">
+      <c r="AK3" s="277"/>
+      <c r="AL3" s="277" t="s">
         <v>182</v>
       </c>
-      <c r="AM3" s="273" t="s">
+      <c r="AM3" s="277" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25192,25 +25192,25 @@
       <c r="AC4" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="267">
+      <c r="AD4" s="266">
         <v>1</v>
       </c>
       <c r="AE4" s="276">
         <v>0.75571428571428578</v>
       </c>
-      <c r="AF4" s="267">
+      <c r="AF4" s="266">
         <v>3</v>
       </c>
       <c r="AG4" s="276">
         <v>1.053409090909091</v>
       </c>
-      <c r="AH4" s="267">
+      <c r="AH4" s="266">
         <v>3</v>
       </c>
       <c r="AI4" s="276">
         <v>1</v>
       </c>
-      <c r="AJ4" s="267">
+      <c r="AJ4" s="266">
         <v>3</v>
       </c>
       <c r="AK4" s="276">
@@ -25268,13 +25268,13 @@
         <f>VLOOKUP(B5,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.83472022955523673</v>
       </c>
-      <c r="AD5" s="267"/>
+      <c r="AD5" s="266"/>
       <c r="AE5" s="276"/>
-      <c r="AF5" s="267"/>
+      <c r="AF5" s="266"/>
       <c r="AG5" s="276"/>
-      <c r="AH5" s="267"/>
+      <c r="AH5" s="266"/>
       <c r="AI5" s="276"/>
-      <c r="AJ5" s="267"/>
+      <c r="AJ5" s="266"/>
       <c r="AK5" s="276"/>
       <c r="AL5" s="23">
         <v>1</v>
@@ -25478,18 +25478,18 @@
       <c r="S9" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" s="273" t="s">
+      <c r="AD9" s="277" t="s">
         <v>43</v>
       </c>
-      <c r="AE9" s="273"/>
-      <c r="AF9" s="273" t="s">
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="273"/>
-      <c r="AH9" s="273" t="s">
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="273"/>
+      <c r="AI9" s="277"/>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -25647,18 +25647,18 @@
         <f>VLOOKUP(B12,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.92380952380952386</v>
       </c>
-      <c r="AD12" s="273" t="s">
+      <c r="AD12" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="273"/>
-      <c r="AF12" s="273" t="s">
+      <c r="AE12" s="277"/>
+      <c r="AF12" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="AG12" s="273"/>
-      <c r="AH12" s="273" t="s">
+      <c r="AG12" s="277"/>
+      <c r="AH12" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="AI12" s="273"/>
+      <c r="AI12" s="277"/>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -27742,11 +27742,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AH9:AI9"/>
@@ -27757,19 +27757,19 @@
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AI4:AI5"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:M18">
-    <cfRule type="cellIs" dxfId="77" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:N54">
-    <cfRule type="cellIs" dxfId="76" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27971,37 +27971,37 @@
         <f>G3/F3</f>
         <v>1.0391304347826087</v>
       </c>
-      <c r="J3" s="263" t="s">
+      <c r="J3" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="263" t="s">
+      <c r="K3" s="272" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="263" t="s">
+      <c r="L3" s="272" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="263" t="s">
+      <c r="M3" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="265" t="s">
+      <c r="N3" s="270" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="265" t="s">
+      <c r="O3" s="270" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="263" t="s">
+      <c r="P3" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="265" t="s">
+      <c r="Q3" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="265" t="s">
+      <c r="S3" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="265" t="s">
+      <c r="T3" s="270" t="s">
         <v>93</v>
       </c>
       <c r="W3">
@@ -28059,17 +28059,17 @@
         <f t="shared" ref="H4:H16" si="1">G4/F4</f>
         <v>1.0152173913043478</v>
       </c>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="266"/>
-      <c r="O4" s="266"/>
-      <c r="P4" s="264"/>
-      <c r="Q4" s="266"/>
-      <c r="R4" s="266"/>
-      <c r="S4" s="266"/>
-      <c r="T4" s="266"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="271"/>
+      <c r="O4" s="271"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="271"/>
+      <c r="R4" s="271"/>
+      <c r="S4" s="271"/>
+      <c r="T4" s="271"/>
       <c r="W4" s="192" t="s">
         <v>34</v>
       </c>
@@ -30867,120 +30867,120 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="M3:M4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="75" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="lessThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="74" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="23" operator="lessThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="73" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="22" operator="lessThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="72" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="21" operator="lessThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="12" operator="lessThan">
       <formula>0.82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="lessThan">
       <formula>0.94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="69" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="18" operator="lessThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="68" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="17" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="67" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="lessThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="15" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="65" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="lessThan">
       <formula>0.84</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16">
-    <cfRule type="cellIs" dxfId="64" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="62" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="lessThan">
       <formula>0.94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
       <formula>0.91</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="59" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
       <formula>0.87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G13">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="lessThan">
       <formula>0.83</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
       <formula>0.88</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30993,8 +30993,8 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="C3:AI60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:Z19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31186,10 +31186,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="21">
-        <v>1.0576470588235294</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="F5" s="21">
-        <v>1.0804597701149425</v>
+        <v>0.94</v>
       </c>
       <c r="G5" s="24">
         <v>0.65</v>
@@ -31221,7 +31221,7 @@
       <c r="P5" s="24">
         <v>0.90074971655725999</v>
       </c>
-      <c r="Q5" s="295">
+      <c r="Q5" s="263">
         <v>0.85</v>
       </c>
       <c r="R5" s="21">
@@ -31239,7 +31239,7 @@
       <c r="V5">
         <v>1598700</v>
       </c>
-      <c r="W5" s="296">
+      <c r="W5" s="264">
         <v>1123508</v>
       </c>
       <c r="X5" s="27"/>
@@ -31266,10 +31266,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="21">
-        <v>1.0089743589743589</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="F6" s="21">
-        <v>1.0413043478260868</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="G6" s="21">
         <v>0.69</v>
@@ -31301,7 +31301,7 @@
       <c r="P6" s="24">
         <v>0.98241646966115059</v>
       </c>
-      <c r="Q6" s="295">
+      <c r="Q6" s="263">
         <v>0.78</v>
       </c>
       <c r="R6" s="21">
@@ -31319,7 +31319,7 @@
       <c r="V6">
         <v>15392157</v>
       </c>
-      <c r="W6" s="296">
+      <c r="W6" s="264">
         <v>15795457</v>
       </c>
       <c r="X6" s="27"/>
@@ -31346,10 +31346,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="21">
-        <v>1.0315217391304348</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="F7" s="21">
-        <v>1.0195652173913043</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="G7" s="21">
         <v>0.75</v>
@@ -31381,7 +31381,7 @@
       <c r="P7" s="24">
         <v>0.97272471910112357</v>
       </c>
-      <c r="Q7" s="295">
+      <c r="Q7" s="263">
         <v>0.92</v>
       </c>
       <c r="R7" s="21">
@@ -31399,7 +31399,7 @@
       <c r="V7">
         <v>4624362</v>
       </c>
-      <c r="W7" s="296">
+      <c r="W7" s="264">
         <v>5191799</v>
       </c>
       <c r="X7" s="27"/>
@@ -31426,10 +31426,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <v>1.0900000000000001</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="F8" s="21">
-        <v>1.0909090909090908</v>
+        <v>0.96</v>
       </c>
       <c r="G8" s="21">
         <v>0.85</v>
@@ -31461,7 +31461,7 @@
       <c r="P8" s="24">
         <v>0.88033000471939737</v>
       </c>
-      <c r="Q8" s="295">
+      <c r="Q8" s="263">
         <v>0.7</v>
       </c>
       <c r="R8" s="21">
@@ -31479,7 +31479,7 @@
       <c r="V8">
         <v>2500000</v>
       </c>
-      <c r="W8" s="296">
+      <c r="W8" s="264">
         <v>2186339</v>
       </c>
       <c r="X8" s="27"/>
@@ -31506,10 +31506,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="21">
-        <v>1.0294117647058825</v>
+        <v>0.875</v>
       </c>
       <c r="F9" s="21">
-        <v>1.0138297872340425</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -31541,7 +31541,7 @@
       <c r="P9" s="24">
         <v>0.98697415407046329</v>
       </c>
-      <c r="Q9" s="295">
+      <c r="Q9" s="263">
         <v>0.85</v>
       </c>
       <c r="R9" s="21">
@@ -31559,7 +31559,7 @@
       <c r="V9">
         <v>3284657</v>
       </c>
-      <c r="W9" s="296">
+      <c r="W9" s="264">
         <v>3076897</v>
       </c>
       <c r="X9" s="27"/>
@@ -31586,10 +31586,10 @@
         <v>19</v>
       </c>
       <c r="E10" s="21">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="F10" s="21">
-        <v>1.1253012048192772</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="G10" s="21">
         <v>0.4</v>
@@ -31621,7 +31621,7 @@
       <c r="P10" s="24">
         <v>0.91558950350206725</v>
       </c>
-      <c r="Q10" s="295">
+      <c r="Q10" s="263">
         <v>0.7</v>
       </c>
       <c r="R10" s="21">
@@ -31639,7 +31639,7 @@
       <c r="V10">
         <v>1869902</v>
       </c>
-      <c r="W10" s="296">
+      <c r="W10" s="264">
         <v>1887323</v>
       </c>
       <c r="X10" s="27"/>
@@ -31665,11 +31665,11 @@
       <c r="D11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>24</v>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
       </c>
       <c r="G11" s="24">
         <v>1</v>
@@ -31701,7 +31701,7 @@
       <c r="P11" s="24">
         <v>0.81214685536885933</v>
       </c>
-      <c r="Q11" s="297" t="s">
+      <c r="Q11" s="265" t="s">
         <v>24</v>
       </c>
       <c r="R11" s="21">
@@ -31719,7 +31719,7 @@
       <c r="V11">
         <v>70000</v>
       </c>
-      <c r="W11" s="296">
+      <c r="W11" s="264">
         <v>55912</v>
       </c>
       <c r="X11" s="27"/>
@@ -31746,10 +31746,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="21">
-        <v>0.98799999999999999</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F12" s="21">
-        <v>1.0602409638554218</v>
+        <v>0.88</v>
       </c>
       <c r="G12" s="24">
         <v>0.6</v>
@@ -31781,7 +31781,7 @@
       <c r="P12" s="24">
         <v>0.94632779796340971</v>
       </c>
-      <c r="Q12" s="295">
+      <c r="Q12" s="263">
         <v>0.75</v>
       </c>
       <c r="R12" s="21">
@@ -31799,7 +31799,7 @@
       <c r="V12">
         <v>1741134</v>
       </c>
-      <c r="W12" s="296">
+      <c r="W12" s="264">
         <v>2147995</v>
       </c>
       <c r="X12" s="27"/>
@@ -31826,10 +31826,10 @@
         <v>20</v>
       </c>
       <c r="E13" s="21">
-        <v>0.96285714285714297</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="F13" s="21">
-        <v>1.1951807228915663</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G13" s="21">
         <v>0.4</v>
@@ -31861,7 +31861,7 @@
       <c r="P13" s="24">
         <v>0.95198579017695806</v>
       </c>
-      <c r="Q13" s="295">
+      <c r="Q13" s="263">
         <v>0.7</v>
       </c>
       <c r="R13" s="21">
@@ -31879,7 +31879,7 @@
       <c r="V13">
         <v>1902532</v>
       </c>
-      <c r="W13" s="296">
+      <c r="W13" s="264">
         <v>2082925</v>
       </c>
       <c r="X13" s="27"/>
@@ -31906,10 +31906,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="21">
-        <v>0.8014285714285716</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="F14" s="21">
-        <v>1.053409090909091</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="G14" s="24">
         <v>0.9</v>
@@ -31941,7 +31941,7 @@
       <c r="P14" s="24">
         <v>0.75529071602506859</v>
       </c>
-      <c r="Q14" s="295">
+      <c r="Q14" s="263">
         <v>0.7</v>
       </c>
       <c r="R14" s="21">
@@ -31959,7 +31959,7 @@
       <c r="V14">
         <v>520000</v>
       </c>
-      <c r="W14" s="296">
+      <c r="W14" s="264">
         <v>276792</v>
       </c>
       <c r="X14" s="27"/>
@@ -31984,10 +31984,10 @@
         <v>21</v>
       </c>
       <c r="E15" s="21">
-        <v>0.87428571428571433</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="F15" s="21">
-        <v>1.0915662650602411</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="G15" s="21">
         <v>0.95</v>
@@ -32019,7 +32019,7 @@
       <c r="P15" s="24">
         <v>0.93199707771438822</v>
       </c>
-      <c r="Q15" s="295">
+      <c r="Q15" s="263">
         <v>0.7</v>
       </c>
       <c r="R15" s="21">
@@ -32037,7 +32037,7 @@
       <c r="V15">
         <v>750373</v>
       </c>
-      <c r="W15" s="296">
+      <c r="W15" s="264">
         <v>733250</v>
       </c>
       <c r="X15" s="27"/>
@@ -32064,10 +32064,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="21">
-        <v>1.0341463414634147</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="F16" s="21">
-        <v>1.0153846153846153</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>24</v>
@@ -32099,7 +32099,7 @@
       <c r="P16" s="24">
         <v>0.93899378690959279</v>
       </c>
-      <c r="Q16" s="295">
+      <c r="Q16" s="263">
         <v>0.82</v>
       </c>
       <c r="R16" s="21">
@@ -32117,7 +32117,7 @@
       <c r="V16">
         <v>2344157</v>
       </c>
-      <c r="W16" s="296">
+      <c r="W16" s="264">
         <v>1860422</v>
       </c>
       <c r="X16" s="27"/>
@@ -32144,10 +32144,10 @@
         <v>17</v>
       </c>
       <c r="E17" s="21">
-        <v>1.0267441860465116</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F17" s="21">
-        <v>1.0799999999999998</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="G17" s="21">
         <v>0.7</v>
@@ -32179,7 +32179,7 @@
       <c r="P17" s="24">
         <v>0.91605446244129962</v>
       </c>
-      <c r="Q17" s="295">
+      <c r="Q17" s="263">
         <v>0.86</v>
       </c>
       <c r="R17" s="21">
@@ -32197,7 +32197,7 @@
       <c r="V17">
         <v>3256524</v>
       </c>
-      <c r="W17" s="296">
+      <c r="W17" s="264">
         <v>2743425</v>
       </c>
       <c r="X17" s="27"/>
@@ -32224,10 +32224,10 @@
         <v>25</v>
       </c>
       <c r="E18" s="21">
-        <v>1.0392857142857144</v>
+        <v>0.873</v>
       </c>
       <c r="F18" s="21">
-        <v>1.0422222222222222</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="G18" s="24">
         <v>0.85</v>
@@ -32259,7 +32259,7 @@
       <c r="P18" s="24">
         <v>0.89518719707983885</v>
       </c>
-      <c r="Q18" s="295">
+      <c r="Q18" s="263">
         <v>0.84</v>
       </c>
       <c r="R18" s="21">
@@ -32277,7 +32277,7 @@
       <c r="V18">
         <v>3645265</v>
       </c>
-      <c r="W18" s="296">
+      <c r="W18" s="264">
         <v>2864761</v>
       </c>
       <c r="X18" s="27"/>
@@ -32304,10 +32304,10 @@
         <v>18</v>
       </c>
       <c r="E19" s="21">
-        <v>1.0521276595744682</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="F19" s="21">
-        <v>1.0431578947368421</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="G19" s="21">
         <v>0</v>
@@ -32339,7 +32339,7 @@
       <c r="P19" s="24">
         <v>0.85601541166579653</v>
       </c>
-      <c r="Q19" s="295">
+      <c r="Q19" s="263">
         <v>0.94</v>
       </c>
       <c r="R19" s="21">
@@ -32357,7 +32357,7 @@
       <c r="V19">
         <v>2100000</v>
       </c>
-      <c r="W19" s="296">
+      <c r="W19" s="264">
         <v>2015930</v>
       </c>
       <c r="X19" s="117"/>
@@ -32429,23 +32429,23 @@
       </c>
     </row>
     <row r="23" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="E23" s="277" t="s">
+      <c r="E23" s="290" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="278"/>
-      <c r="G23" s="278"/>
-      <c r="H23" s="278"/>
-      <c r="I23" s="279"/>
-      <c r="J23" s="280" t="s">
+      <c r="F23" s="291"/>
+      <c r="G23" s="291"/>
+      <c r="H23" s="291"/>
+      <c r="I23" s="292"/>
+      <c r="J23" s="281" t="s">
         <v>203</v>
       </c>
-      <c r="K23" s="281"/>
-      <c r="L23" s="282"/>
-      <c r="M23" s="283" t="s">
+      <c r="K23" s="282"/>
+      <c r="L23" s="283"/>
+      <c r="M23" s="284" t="s">
         <v>204</v>
       </c>
-      <c r="N23" s="284"/>
-      <c r="O23" s="285"/>
+      <c r="N23" s="285"/>
+      <c r="O23" s="286"/>
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.25">
       <c r="E24" s="214">
@@ -33207,23 +33207,23 @@
     </row>
     <row r="46" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E47" s="277" t="s">
+      <c r="E47" s="290" t="s">
         <v>225</v>
       </c>
-      <c r="F47" s="278"/>
-      <c r="G47" s="278"/>
-      <c r="H47" s="278"/>
-      <c r="I47" s="279"/>
-      <c r="J47" s="280" t="s">
+      <c r="F47" s="291"/>
+      <c r="G47" s="291"/>
+      <c r="H47" s="291"/>
+      <c r="I47" s="292"/>
+      <c r="J47" s="281" t="s">
         <v>203</v>
       </c>
-      <c r="K47" s="281"/>
-      <c r="L47" s="282"/>
-      <c r="M47" s="283" t="s">
+      <c r="K47" s="282"/>
+      <c r="L47" s="283"/>
+      <c r="M47" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="N47" s="284"/>
-      <c r="O47" s="285"/>
+      <c r="N47" s="285"/>
+      <c r="O47" s="286"/>
       <c r="P47" s="235" t="s">
         <v>173</v>
       </c>
@@ -33386,16 +33386,16 @@
       <c r="H56" s="289"/>
       <c r="I56" s="289"/>
       <c r="J56" s="289"/>
-      <c r="K56" s="280" t="s">
+      <c r="K56" s="281" t="s">
         <v>203</v>
       </c>
-      <c r="L56" s="281"/>
-      <c r="M56" s="282"/>
-      <c r="N56" s="283" t="s">
+      <c r="L56" s="282"/>
+      <c r="M56" s="283"/>
+      <c r="N56" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="O56" s="284"/>
-      <c r="P56" s="285"/>
+      <c r="O56" s="285"/>
+      <c r="P56" s="286"/>
       <c r="Q56" s="235" t="s">
         <v>173</v>
       </c>
@@ -33460,10 +33460,10 @@
       <c r="H59" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="286" t="s">
+      <c r="I59" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="286"/>
+      <c r="J59" s="280"/>
       <c r="K59" s="204" t="s">
         <v>7</v>
       </c>
@@ -33538,148 +33538,148 @@
     <sortCondition ref="AC5:AC21"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E56:J56"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="J47:L47"/>
     <mergeCell ref="M47:O47"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E56:J56"/>
   </mergeCells>
   <conditionalFormatting sqref="E27:E29 E31:E32">
-    <cfRule type="cellIs" dxfId="54" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H40">
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="47" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I38">
-    <cfRule type="cellIs" dxfId="46" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="44" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M38">
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40">
-    <cfRule type="cellIs" dxfId="40" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:N32">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N36">
-    <cfRule type="cellIs" dxfId="36" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O36">
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O36">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P40">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
+  <conditionalFormatting sqref="P5:P19">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P19">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="P27:P40">
+    <cfRule type="cellIs" dxfId="7" priority="34" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36264,21 +36264,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:M17 E18:M18">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:N54">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O18">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36287,6 +36287,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
@@ -36295,15 +36304,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36542,6 +36542,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834DA8F5-60A1-4558-9A54-21F8114614ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8AA903F-84BC-4B1C-9BC3-FB43A782A246}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -36554,14 +36562,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834DA8F5-60A1-4558-9A54-21F8114614ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Annual_V2_octnow.xlsx
+++ b/Annual_V2_octnow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3788c24686780f/Escritorio/Nissan/Dashboard_NIBU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6EFBBC1E-E11D-48A9-9603-177529F04DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BED49FB-CD5A-496F-85B3-A059993301BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A490DF13-A62F-4F53-936A-AC758B84E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="7" xr2:uid="{53836420-D36C-410F-ABBE-B356CDD75E29}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="238">
   <si>
     <t>Porcentaje de Cumplimiento por KPI</t>
   </si>
@@ -750,13 +750,16 @@
     <t>real + fc</t>
   </si>
   <si>
-    <t>PAÍS</t>
+    <t>NRC-Imp</t>
   </si>
   <si>
-    <t>% AVANCE</t>
+    <t>NSC_Real</t>
   </si>
   <si>
-    <t>NRC-Imp</t>
+    <t>NSC_Target</t>
+  </si>
+  <si>
+    <t>NSC_Fulfillment</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="#,##0;[Red]\(#,##0\);\-"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,23 +960,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1750,7 +1740,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2396,26 +2386,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2429,26 +2422,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2459,7 +2437,16 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2480,6 +2467,9 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2487,15 +2477,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,60 +2537,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3185,25 +3112,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3843,6 +3751,96 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -3888,29 +3886,29 @@
     <sortCondition ref="D4:D19"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{6D7C1C3B-662B-425E-A878-F9CAB1E70736}" name="Market" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3E76D9A8-1C8F-4558-AE62-4B3F0856D8CA}" name="CSI" dataDxfId="1" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" xr3:uid="{9766C087-6359-4C97-B8F1-CABA684DFD28}" name="SSI" dataDxfId="0" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{E7710399-A390-4299-8E23-454C6FF33E33}" name="NRC" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{8ADF3CBF-360D-414E-A138-A7E6A1CB0ABC}" name="Training" dataDxfId="79" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{C403ABBD-470C-465D-9967-CAD7A6A6FC16}" name="Ser. Campaign" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{ED0D1BDF-C968-4040-B227-690D12802A53}" name="Lead Mng." dataDxfId="77" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{678A70D5-08C0-4475-B151-1FDA122F2B43}" name="Share of Inv." dataDxfId="76" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{490A077C-B1CF-4420-8C36-4602BC980D67}" name="Game Plan" dataDxfId="75" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{A699BB08-E665-4172-AA6A-A3DEC7DC58CF}" name="Sell In" dataDxfId="74" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{22F33692-9BAE-4539-9E15-368AF8388AB9}" name="Retention" dataDxfId="73" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{A4E850D2-F565-4FE8-9450-CBF306602D13}" name="Retail Sales" dataDxfId="72" dataCellStyle="Porcentaje"/>
-    <tableColumn id="13" xr3:uid="{9D3B6FD9-5B09-4ADF-9C1E-2CB78DED9062}" name="Achievement" dataDxfId="71"/>
-    <tableColumn id="14" xr3:uid="{88B3BF16-EF28-4334-9860-6A690884430A}" name="Target CSI" dataDxfId="70"/>
-    <tableColumn id="15" xr3:uid="{74F1A6D8-1574-424A-8FBA-BDD9FD54BE58}" name="Target SSI" dataDxfId="69" dataCellStyle="Porcentaje"/>
-    <tableColumn id="16" xr3:uid="{88C8D29C-D556-47B8-91C3-C9CE29FFA0B8}" name="Target Sell-In" dataDxfId="68"/>
-    <tableColumn id="18" xr3:uid="{5596719A-00D9-41C2-848E-BE70E9C99C91}" name="Target Retention" dataDxfId="67"/>
-    <tableColumn id="19" xr3:uid="{87A9E838-1E8C-4EA3-BBEE-6C98D70B1157}" name="Real-Retention" dataDxfId="66"/>
-    <tableColumn id="21" xr3:uid="{698DB94E-F672-4126-AD8F-BF2BD7D1DFA2}" name="Target Sell-In2" dataDxfId="65"/>
-    <tableColumn id="22" xr3:uid="{FDAA6523-49E3-49AC-BA70-FFA3A71767DA}" name="Real Sell-In" dataDxfId="64"/>
-    <tableColumn id="17" xr3:uid="{9A3B62A2-DF3B-4B40-8638-2E456228F9F2}" name="NSC-Target" dataDxfId="63" dataCellStyle="Porcentaje"/>
-    <tableColumn id="20" xr3:uid="{2A46E5C8-24CF-488C-BF9C-454EEEFBEC0E}" name="NSC-Sep" dataDxfId="62" dataCellStyle="Porcentaje"/>
-    <tableColumn id="23" xr3:uid="{C69672CD-67B0-4C33-B5A3-888DFDC9BD24}" name="NRC-Imp" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{6D7C1C3B-662B-425E-A878-F9CAB1E70736}" name="Market" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{3E76D9A8-1C8F-4558-AE62-4B3F0856D8CA}" name="CSI" dataDxfId="79" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" xr3:uid="{9766C087-6359-4C97-B8F1-CABA684DFD28}" name="SSI" dataDxfId="78" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{E7710399-A390-4299-8E23-454C6FF33E33}" name="NRC" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{8ADF3CBF-360D-414E-A138-A7E6A1CB0ABC}" name="Training" dataDxfId="76" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{C403ABBD-470C-465D-9967-CAD7A6A6FC16}" name="Ser. Campaign" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{ED0D1BDF-C968-4040-B227-690D12802A53}" name="Lead Mng." dataDxfId="74" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{678A70D5-08C0-4475-B151-1FDA122F2B43}" name="Share of Inv." dataDxfId="73" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{490A077C-B1CF-4420-8C36-4602BC980D67}" name="Game Plan" dataDxfId="72" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{A699BB08-E665-4172-AA6A-A3DEC7DC58CF}" name="Sell In" dataDxfId="71" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{22F33692-9BAE-4539-9E15-368AF8388AB9}" name="Retention" dataDxfId="70" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{A4E850D2-F565-4FE8-9450-CBF306602D13}" name="Retail Sales" dataDxfId="69" dataCellStyle="Porcentaje"/>
+    <tableColumn id="13" xr3:uid="{9D3B6FD9-5B09-4ADF-9C1E-2CB78DED9062}" name="Achievement" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{88B3BF16-EF28-4334-9860-6A690884430A}" name="Target CSI" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{74F1A6D8-1574-424A-8FBA-BDD9FD54BE58}" name="Target SSI" dataDxfId="66" dataCellStyle="Porcentaje"/>
+    <tableColumn id="16" xr3:uid="{88C8D29C-D556-47B8-91C3-C9CE29FFA0B8}" name="Target Sell-In" dataDxfId="65"/>
+    <tableColumn id="18" xr3:uid="{5596719A-00D9-41C2-848E-BE70E9C99C91}" name="Target Retention" dataDxfId="64"/>
+    <tableColumn id="19" xr3:uid="{87A9E838-1E8C-4EA3-BBEE-6C98D70B1157}" name="Real-Retention" dataDxfId="63"/>
+    <tableColumn id="21" xr3:uid="{698DB94E-F672-4126-AD8F-BF2BD7D1DFA2}" name="Target Sell-In2" dataDxfId="62"/>
+    <tableColumn id="22" xr3:uid="{FDAA6523-49E3-49AC-BA70-FFA3A71767DA}" name="Real Sell-In" dataDxfId="61"/>
+    <tableColumn id="17" xr3:uid="{9A3B62A2-DF3B-4B40-8638-2E456228F9F2}" name="NSC-Target" dataDxfId="60" dataCellStyle="Porcentaje"/>
+    <tableColumn id="20" xr3:uid="{2A46E5C8-24CF-488C-BF9C-454EEEFBEC0E}" name="NSC-Sep" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="23" xr3:uid="{C69672CD-67B0-4C33-B5A3-888DFDC9BD24}" name="NRC-Imp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6774,14 +6772,14 @@
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="290" t="s">
+      <c r="C2" s="277" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="292"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="279"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="214">
@@ -6799,7 +6797,7 @@
       <c r="G3" s="287">
         <v>0.04</v>
       </c>
-      <c r="H3" s="295"/>
+      <c r="H3" s="292"/>
     </row>
     <row r="4" spans="3:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="204" t="s">
@@ -6814,10 +6812,10 @@
       <c r="F4" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="280" t="s">
+      <c r="G4" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="291"/>
     </row>
     <row r="5" spans="3:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="246">
@@ -6854,11 +6852,11 @@
     <row r="6" spans="3:15" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:15" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="281" t="s">
+      <c r="D8" s="280" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="282"/>
-      <c r="F8" s="283"/>
+      <c r="E8" s="281"/>
+      <c r="F8" s="282"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D9" s="217">
@@ -6896,11 +6894,11 @@
     <row r="12" spans="3:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="3:15" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="284" t="s">
+      <c r="D14" s="283" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="285"/>
-      <c r="F14" s="286"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="285"/>
     </row>
     <row r="15" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="241">
@@ -6937,18 +6935,18 @@
     </row>
     <row r="18" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="296" t="s">
+      <c r="D19" s="293" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
+      <c r="E19" s="293"/>
+      <c r="F19" s="293"/>
     </row>
     <row r="20" spans="4:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="293">
+      <c r="D20" s="290">
         <v>0.88896254810644371</v>
       </c>
-      <c r="E20" s="293"/>
-      <c r="F20" s="293"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6994,50 +6992,50 @@
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="297" t="s">
+      <c r="C4" s="294" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297" t="s">
+      <c r="D4" s="294"/>
+      <c r="E4" s="294" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297" t="s">
+      <c r="F4" s="294"/>
+      <c r="G4" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="294" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297" t="s">
+      <c r="J4" s="294"/>
+      <c r="K4" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="297"/>
-      <c r="M4" s="297" t="s">
+      <c r="L4" s="294"/>
+      <c r="M4" s="294" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="297"/>
-      <c r="O4" s="297" t="s">
+      <c r="N4" s="294"/>
+      <c r="O4" s="294" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297" t="s">
+      <c r="P4" s="294"/>
+      <c r="Q4" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="297"/>
-      <c r="S4" s="297" t="s">
+      <c r="R4" s="294"/>
+      <c r="S4" s="294" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="297"/>
-      <c r="U4" s="297" t="s">
+      <c r="T4" s="294"/>
+      <c r="U4" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297" t="s">
+      <c r="V4" s="294"/>
+      <c r="W4" s="294" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="297"/>
+      <c r="X4" s="294"/>
     </row>
     <row r="5" spans="2:24" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="118" t="s">
@@ -7254,17 +7252,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C7">
     <cfRule type="iconSet" priority="12">
@@ -7471,25 +7469,25 @@
       </c>
     </row>
     <row r="3" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="272" t="s">
+      <c r="B3" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="272" t="s">
+      <c r="C3" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="272" t="s">
+      <c r="D3" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="272" t="s">
+      <c r="E3" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="270" t="s">
+      <c r="F3" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="270" t="s">
+      <c r="G3" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="265" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -7507,17 +7505,17 @@
       <c r="N3">
         <v>5</v>
       </c>
-      <c r="S3" s="266" t="s">
+      <c r="S3" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
+      <c r="T3" s="267"/>
+      <c r="U3" s="267"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="266" t="s">
+      <c r="W3" s="267" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
+      <c r="X3" s="267"/>
+      <c r="Y3" s="267"/>
       <c r="AA3">
         <v>1</v>
       </c>
@@ -7527,23 +7525,23 @@
       <c r="AC3">
         <v>3</v>
       </c>
-      <c r="AE3" s="267" t="s">
+      <c r="AE3" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="267"/>
-      <c r="AG3" s="267"/>
-      <c r="AH3" s="267"/>
-      <c r="AK3" s="269" t="s">
+      <c r="AF3" s="268"/>
+      <c r="AG3" s="268"/>
+      <c r="AH3" s="268"/>
+      <c r="AK3" s="270" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="269"/>
-      <c r="AM3" s="269"/>
-      <c r="AN3" s="268" t="s">
+      <c r="AL3" s="270"/>
+      <c r="AM3" s="270"/>
+      <c r="AN3" s="269" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="268"/>
-      <c r="AP3" s="268"/>
-      <c r="AQ3" s="268"/>
+      <c r="AO3" s="269"/>
+      <c r="AP3" s="269"/>
+      <c r="AQ3" s="269"/>
       <c r="AT3">
         <v>1</v>
       </c>
@@ -7573,13 +7571,13 @@
       </c>
     </row>
     <row r="4" spans="2:54" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
       <c r="J4" s="20" t="s">
         <v>1</v>
       </c>
@@ -11110,28 +11108,28 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="272" t="s">
+      <c r="B56" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="270" t="s">
+      <c r="C56" s="265" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="270" t="s">
+      <c r="D56" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="270" t="s">
+      <c r="E56" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="270" t="s">
+      <c r="F56" s="265" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="273"/>
-      <c r="C57" s="271"/>
-      <c r="D57" s="271"/>
-      <c r="E57" s="271"/>
-      <c r="F57" s="271"/>
+      <c r="B57" s="264"/>
+      <c r="C57" s="266"/>
+      <c r="D57" s="266"/>
+      <c r="E57" s="266"/>
+      <c r="F57" s="266"/>
       <c r="I57" s="12" t="s">
         <v>91</v>
       </c>
@@ -11734,39 +11732,39 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <conditionalFormatting sqref="O18">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
       <formula>0.88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:T36">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="greaterThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH19">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11840,34 +11838,34 @@
       </c>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B3" s="272" t="s">
+      <c r="B3" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="272" t="s">
+      <c r="C3" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="265" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="272" t="s">
+      <c r="E3" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="270" t="s">
+      <c r="F3" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="270" t="s">
+      <c r="G3" s="265" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="270" t="s">
+      <c r="I3" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="270" t="s">
+      <c r="J3" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="270" t="s">
+      <c r="K3" s="265" t="s">
         <v>93</v>
       </c>
       <c r="AB3" s="20" t="s">
@@ -11899,16 +11897,16 @@
       </c>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="271"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
       <c r="M4" s="102" t="s">
         <v>34</v>
       </c>
@@ -16565,16 +16563,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19078,17 +19076,17 @@
       <c r="L1" s="11">
         <v>7</v>
       </c>
-      <c r="AI1" s="274" t="s">
+      <c r="AI1" s="271" t="s">
         <v>154</v>
       </c>
-      <c r="AJ1" s="274"/>
-      <c r="AK1" s="274"/>
-      <c r="AL1" s="274"/>
-      <c r="AM1" s="274"/>
-      <c r="AN1" s="274"/>
-      <c r="AO1" s="274"/>
-      <c r="AP1" s="274"/>
-      <c r="AQ1" s="274"/>
+      <c r="AJ1" s="271"/>
+      <c r="AK1" s="271"/>
+      <c r="AL1" s="271"/>
+      <c r="AM1" s="271"/>
+      <c r="AN1" s="271"/>
+      <c r="AO1" s="271"/>
+      <c r="AP1" s="271"/>
+      <c r="AQ1" s="271"/>
     </row>
     <row r="2" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B2" s="131" t="s">
@@ -19121,12 +19119,12 @@
       <c r="L2" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="274" t="s">
+      <c r="N2" s="271" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="274"/>
-      <c r="P2" s="274"/>
-      <c r="Q2" s="274"/>
+      <c r="O2" s="271"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
       <c r="S2" s="11">
         <v>1</v>
       </c>
@@ -19209,14 +19207,14 @@
       <c r="AB3" s="11">
         <v>7</v>
       </c>
-      <c r="AC3" s="267" t="s">
+      <c r="AC3" s="268" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" s="267"/>
-      <c r="AE3" s="275" t="s">
+      <c r="AD3" s="268"/>
+      <c r="AE3" s="272" t="s">
         <v>162</v>
       </c>
-      <c r="AF3" s="275"/>
+      <c r="AF3" s="272"/>
       <c r="AI3" s="11">
         <v>1</v>
       </c>
@@ -19326,64 +19324,64 @@
       <c r="T4" s="27">
         <v>0.96701655572623324</v>
       </c>
-      <c r="V4" s="272" t="s">
+      <c r="V4" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="270" t="s">
+      <c r="W4" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="270" t="s">
+      <c r="X4" s="265" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="270" t="s">
+      <c r="Y4" s="265" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="270" t="s">
+      <c r="Z4" s="265" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" s="270" t="s">
+      <c r="AA4" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="270" t="s">
+      <c r="AB4" s="265" t="s">
         <v>165</v>
       </c>
-      <c r="AC4" s="270" t="s">
+      <c r="AC4" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" s="270" t="s">
+      <c r="AD4" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="270" t="s">
+      <c r="AE4" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" s="270" t="s">
+      <c r="AF4" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AI4" s="272" t="s">
+      <c r="AI4" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="272" t="s">
+      <c r="AJ4" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="270" t="s">
+      <c r="AK4" s="265" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="270" t="s">
+      <c r="AL4" s="265" t="s">
         <v>165</v>
       </c>
-      <c r="AM4" s="270" t="s">
+      <c r="AM4" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="AN4" s="270" t="s">
+      <c r="AN4" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="270" t="s">
+      <c r="AO4" s="265" t="s">
         <v>165</v>
       </c>
-      <c r="AP4" s="270" t="s">
+      <c r="AP4" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="270" t="s">
+      <c r="AQ4" s="265" t="s">
         <v>93</v>
       </c>
       <c r="AR4" s="163"/>
@@ -19494,26 +19492,26 @@
       <c r="T5" s="27">
         <v>0</v>
       </c>
-      <c r="V5" s="273"/>
-      <c r="W5" s="271"/>
-      <c r="X5" s="271"/>
-      <c r="Y5" s="271"/>
-      <c r="Z5" s="271"/>
-      <c r="AA5" s="271"/>
-      <c r="AB5" s="271"/>
-      <c r="AC5" s="271"/>
-      <c r="AD5" s="271"/>
-      <c r="AE5" s="271"/>
-      <c r="AF5" s="271"/>
-      <c r="AI5" s="273"/>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="271"/>
-      <c r="AL5" s="271"/>
-      <c r="AM5" s="271"/>
-      <c r="AN5" s="271"/>
-      <c r="AO5" s="271"/>
-      <c r="AP5" s="271"/>
-      <c r="AQ5" s="271"/>
+      <c r="V5" s="264"/>
+      <c r="W5" s="266"/>
+      <c r="X5" s="266"/>
+      <c r="Y5" s="266"/>
+      <c r="Z5" s="266"/>
+      <c r="AA5" s="266"/>
+      <c r="AB5" s="266"/>
+      <c r="AC5" s="266"/>
+      <c r="AD5" s="266"/>
+      <c r="AE5" s="266"/>
+      <c r="AF5" s="266"/>
+      <c r="AI5" s="264"/>
+      <c r="AJ5" s="264"/>
+      <c r="AK5" s="266"/>
+      <c r="AL5" s="266"/>
+      <c r="AM5" s="266"/>
+      <c r="AN5" s="266"/>
+      <c r="AO5" s="266"/>
+      <c r="AP5" s="266"/>
+      <c r="AQ5" s="266"/>
       <c r="AR5" s="163"/>
       <c r="AT5" s="14" t="s">
         <v>13</v>
@@ -25027,6 +25025,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AI1:AQ1"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AE3:AF3"/>
@@ -25040,20 +25049,9 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="J41:J73">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25121,26 +25119,26 @@
         <v>12</v>
       </c>
       <c r="N3"/>
-      <c r="AD3" s="277" t="s">
+      <c r="AD3" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="277"/>
-      <c r="AF3" s="277" t="s">
+      <c r="AE3" s="273"/>
+      <c r="AF3" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="277"/>
-      <c r="AH3" s="278" t="s">
+      <c r="AG3" s="273"/>
+      <c r="AH3" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="277" t="s">
+      <c r="AI3" s="275"/>
+      <c r="AJ3" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="277"/>
-      <c r="AL3" s="277" t="s">
+      <c r="AK3" s="273"/>
+      <c r="AL3" s="273" t="s">
         <v>182</v>
       </c>
-      <c r="AM3" s="277" t="s">
+      <c r="AM3" s="273" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25192,25 +25190,25 @@
       <c r="AC4" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="266">
+      <c r="AD4" s="267">
         <v>1</v>
       </c>
       <c r="AE4" s="276">
         <v>0.75571428571428578</v>
       </c>
-      <c r="AF4" s="266">
+      <c r="AF4" s="267">
         <v>3</v>
       </c>
       <c r="AG4" s="276">
         <v>1.053409090909091</v>
       </c>
-      <c r="AH4" s="266">
+      <c r="AH4" s="267">
         <v>3</v>
       </c>
       <c r="AI4" s="276">
         <v>1</v>
       </c>
-      <c r="AJ4" s="266">
+      <c r="AJ4" s="267">
         <v>3</v>
       </c>
       <c r="AK4" s="276">
@@ -25268,13 +25266,13 @@
         <f>VLOOKUP(B5,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.83472022955523673</v>
       </c>
-      <c r="AD5" s="266"/>
+      <c r="AD5" s="267"/>
       <c r="AE5" s="276"/>
-      <c r="AF5" s="266"/>
+      <c r="AF5" s="267"/>
       <c r="AG5" s="276"/>
-      <c r="AH5" s="266"/>
+      <c r="AH5" s="267"/>
       <c r="AI5" s="276"/>
-      <c r="AJ5" s="266"/>
+      <c r="AJ5" s="267"/>
       <c r="AK5" s="276"/>
       <c r="AL5" s="23">
         <v>1</v>
@@ -25478,18 +25476,18 @@
       <c r="S9" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" s="277" t="s">
+      <c r="AD9" s="273" t="s">
         <v>43</v>
       </c>
-      <c r="AE9" s="277"/>
-      <c r="AF9" s="277" t="s">
+      <c r="AE9" s="273"/>
+      <c r="AF9" s="273" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="277"/>
-      <c r="AH9" s="277" t="s">
+      <c r="AG9" s="273"/>
+      <c r="AH9" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="277"/>
+      <c r="AI9" s="273"/>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -25647,18 +25645,18 @@
         <f>VLOOKUP(B12,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.92380952380952386</v>
       </c>
-      <c r="AD12" s="277" t="s">
+      <c r="AD12" s="273" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="277"/>
-      <c r="AF12" s="277" t="s">
+      <c r="AE12" s="273"/>
+      <c r="AF12" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="AG12" s="277"/>
-      <c r="AH12" s="277" t="s">
+      <c r="AG12" s="273"/>
+      <c r="AH12" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="AI12" s="277"/>
+      <c r="AI12" s="273"/>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -27742,11 +27740,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AH9:AI9"/>
@@ -27757,19 +27755,19 @@
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:M18">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:N54">
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27971,37 +27969,37 @@
         <f>G3/F3</f>
         <v>1.0391304347826087</v>
       </c>
-      <c r="J3" s="272" t="s">
+      <c r="J3" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="272" t="s">
+      <c r="K3" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="272" t="s">
+      <c r="L3" s="263" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="272" t="s">
+      <c r="M3" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="270" t="s">
+      <c r="N3" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="270" t="s">
+      <c r="O3" s="265" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="272" t="s">
+      <c r="P3" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="270" t="s">
+      <c r="Q3" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="270" t="s">
+      <c r="R3" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="270" t="s">
+      <c r="S3" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="270" t="s">
+      <c r="T3" s="265" t="s">
         <v>93</v>
       </c>
       <c r="W3">
@@ -28059,17 +28057,17 @@
         <f t="shared" ref="H4:H16" si="1">G4/F4</f>
         <v>1.0152173913043478</v>
       </c>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="271"/>
-      <c r="O4" s="271"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="271"/>
-      <c r="R4" s="271"/>
-      <c r="S4" s="271"/>
-      <c r="T4" s="271"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="264"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
+      <c r="T4" s="266"/>
       <c r="W4" s="192" t="s">
         <v>34</v>
       </c>
@@ -30867,120 +30865,120 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="53" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="24" operator="lessThan">
       <formula>0.78</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="52" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="23" operator="lessThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="51" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="lessThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="50" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="lessThan">
       <formula>0.86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="49" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="12" operator="lessThan">
       <formula>0.82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="lessThan">
       <formula>0.94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="47" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="lessThan">
       <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="46" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="44" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="43" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="lessThan">
       <formula>0.84</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16">
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
       <formula>0.92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="lessThan">
       <formula>0.94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="lessThan">
       <formula>0.91</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="lessThan">
       <formula>0.87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G13">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="lessThan">
       <formula>0.83</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="lessThan">
       <formula>0.88</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30991,10 +30989,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EFE4F-9744-4E3D-8FD2-FF7FCF262130}">
   <sheetPr codeName="Hoja8"/>
-  <dimension ref="C3:AI60"/>
+  <dimension ref="C3:AP60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU19" sqref="AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31021,10 +31019,14 @@
     <col min="25" max="25" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="8.7109375" style="11"/>
     <col min="28" max="29" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7109375" style="11"/>
+    <col min="30" max="39" width="8.7109375" style="11"/>
+    <col min="40" max="40" width="10.85546875" style="11" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" style="11" customWidth="1"/>
+    <col min="42" max="42" width="16" style="11" customWidth="1"/>
+    <col min="43" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="255">
         <v>1</v>
       </c>
@@ -31095,7 +31097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="4:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:42" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
@@ -31163,7 +31165,7 @@
         <v>232</v>
       </c>
       <c r="Z4" s="256" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AC4" s="192" t="s">
         <v>34</v>
@@ -31174,14 +31176,26 @@
       <c r="AF4" s="257" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="260" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI4" s="260" t="s">
+      <c r="AJ4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO4" s="25" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP4" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
@@ -31221,7 +31235,7 @@
       <c r="P5" s="24">
         <v>0.90074971655725999</v>
       </c>
-      <c r="Q5" s="263">
+      <c r="Q5" s="260">
         <v>0.85</v>
       </c>
       <c r="R5" s="21">
@@ -31239,12 +31253,14 @@
       <c r="V5">
         <v>1598700</v>
       </c>
-      <c r="W5" s="264">
+      <c r="W5" s="261">
         <v>1123508</v>
       </c>
       <c r="X5" s="27"/>
       <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
+      <c r="Z5" s="24">
+        <v>0.65</v>
+      </c>
       <c r="AC5" s="35" t="s">
         <v>26</v>
       </c>
@@ -31254,14 +31270,24 @@
       <c r="AF5" s="258" t="s">
         <v>26</v>
       </c>
-      <c r="AH5" s="261" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AI5" s="262">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK5" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="AM5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN5" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="AO5" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AP5" s="24"/>
+    </row>
+    <row r="6" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
@@ -31301,7 +31327,7 @@
       <c r="P6" s="24">
         <v>0.98241646966115059</v>
       </c>
-      <c r="Q6" s="263">
+      <c r="Q6" s="260">
         <v>0.78</v>
       </c>
       <c r="R6" s="21">
@@ -31319,12 +31345,14 @@
       <c r="V6">
         <v>15392157</v>
       </c>
-      <c r="W6" s="264">
+      <c r="W6" s="261">
         <v>15795457</v>
       </c>
       <c r="X6" s="27"/>
       <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
+      <c r="Z6" s="21">
+        <v>0.69</v>
+      </c>
       <c r="AC6" s="35" t="s">
         <v>13</v>
       </c>
@@ -31334,14 +31362,24 @@
       <c r="AF6" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="AH6" s="261" t="s">
+      <c r="AJ6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AI6" s="262">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK6" s="21">
+        <v>0.69</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="AO6" s="21">
+        <v>0.69</v>
+      </c>
+      <c r="AP6" s="21"/>
+    </row>
+    <row r="7" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
@@ -31381,7 +31419,7 @@
       <c r="P7" s="24">
         <v>0.97272471910112357</v>
       </c>
-      <c r="Q7" s="263">
+      <c r="Q7" s="260">
         <v>0.92</v>
       </c>
       <c r="R7" s="21">
@@ -31399,12 +31437,14 @@
       <c r="V7">
         <v>4624362</v>
       </c>
-      <c r="W7" s="264">
+      <c r="W7" s="261">
         <v>5191799</v>
       </c>
       <c r="X7" s="27"/>
       <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
+      <c r="Z7" s="21">
+        <v>0.75</v>
+      </c>
       <c r="AC7" s="35" t="s">
         <v>15</v>
       </c>
@@ -31414,14 +31454,24 @@
       <c r="AF7" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="AH7" s="261" t="s">
+      <c r="AJ7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AI7" s="262">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK7" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="AM7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN7" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="AO7" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="AP7" s="21"/>
+    </row>
+    <row r="8" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
@@ -31461,7 +31511,7 @@
       <c r="P8" s="24">
         <v>0.88033000471939737</v>
       </c>
-      <c r="Q8" s="263">
+      <c r="Q8" s="260">
         <v>0.7</v>
       </c>
       <c r="R8" s="21">
@@ -31479,12 +31529,14 @@
       <c r="V8">
         <v>2500000</v>
       </c>
-      <c r="W8" s="264">
+      <c r="W8" s="261">
         <v>2186339</v>
       </c>
       <c r="X8" s="27"/>
       <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
+      <c r="Z8" s="21">
+        <v>0.85</v>
+      </c>
       <c r="AC8" s="35" t="s">
         <v>22</v>
       </c>
@@ -31494,14 +31546,24 @@
       <c r="AF8" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="AH8" s="261" t="s">
+      <c r="AJ8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AI8" s="262">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK8" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="AM8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN8" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="AO8" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="AP8" s="21"/>
+    </row>
+    <row r="9" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
@@ -31541,7 +31603,7 @@
       <c r="P9" s="24">
         <v>0.98697415407046329</v>
       </c>
-      <c r="Q9" s="263">
+      <c r="Q9" s="260">
         <v>0.85</v>
       </c>
       <c r="R9" s="21">
@@ -31559,12 +31621,14 @@
       <c r="V9">
         <v>3284657</v>
       </c>
-      <c r="W9" s="264">
+      <c r="W9" s="261">
         <v>3076897</v>
       </c>
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
+      <c r="Z9" s="21">
+        <v>1</v>
+      </c>
       <c r="AC9" s="35" t="s">
         <v>16</v>
       </c>
@@ -31574,14 +31638,24 @@
       <c r="AF9" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="AH9" s="261" t="s">
+      <c r="AJ9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AI9" s="262">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN9" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="AO9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AP9" s="21"/>
+    </row>
+    <row r="10" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
@@ -31621,7 +31695,7 @@
       <c r="P10" s="24">
         <v>0.91558950350206725</v>
       </c>
-      <c r="Q10" s="263">
+      <c r="Q10" s="260">
         <v>0.7</v>
       </c>
       <c r="R10" s="21">
@@ -31639,12 +31713,14 @@
       <c r="V10">
         <v>1869902</v>
       </c>
-      <c r="W10" s="264">
+      <c r="W10" s="261">
         <v>1887323</v>
       </c>
       <c r="X10" s="27"/>
       <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
+      <c r="Z10" s="21">
+        <v>0.4</v>
+      </c>
       <c r="AC10" s="35" t="s">
         <v>19</v>
       </c>
@@ -31654,14 +31730,24 @@
       <c r="AF10" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="AH10" s="261" t="s">
+      <c r="AJ10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AI10" s="262">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK10" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AM10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN10" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="AO10" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="AP10" s="21"/>
+    </row>
+    <row r="11" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="11" t="s">
         <v>78</v>
       </c>
@@ -31701,7 +31787,7 @@
       <c r="P11" s="24">
         <v>0.81214685536885933</v>
       </c>
-      <c r="Q11" s="265" t="s">
+      <c r="Q11" s="262" t="s">
         <v>24</v>
       </c>
       <c r="R11" s="21">
@@ -31719,12 +31805,14 @@
       <c r="V11">
         <v>70000</v>
       </c>
-      <c r="W11" s="264">
+      <c r="W11" s="261">
         <v>55912</v>
       </c>
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
+      <c r="Z11" s="24">
+        <v>1</v>
+      </c>
       <c r="AC11" s="35" t="s">
         <v>78</v>
       </c>
@@ -31734,14 +31822,24 @@
       <c r="AF11" s="258" t="s">
         <v>78</v>
       </c>
-      <c r="AH11" s="261" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI11" s="262">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK11" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN11" s="24">
+        <v>0.63</v>
+      </c>
+      <c r="AO11" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="AP11" s="24"/>
+    </row>
+    <row r="12" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
@@ -31781,7 +31879,7 @@
       <c r="P12" s="24">
         <v>0.94632779796340971</v>
       </c>
-      <c r="Q12" s="263">
+      <c r="Q12" s="260">
         <v>0.75</v>
       </c>
       <c r="R12" s="21">
@@ -31799,12 +31897,14 @@
       <c r="V12">
         <v>1741134</v>
       </c>
-      <c r="W12" s="264">
+      <c r="W12" s="261">
         <v>2147995</v>
       </c>
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
+      <c r="Z12" s="24">
+        <v>0.6</v>
+      </c>
       <c r="AC12" s="35" t="s">
         <v>23</v>
       </c>
@@ -31814,14 +31914,24 @@
       <c r="AF12" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AH12" s="261" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI12" s="262">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK12" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AM12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN12" s="24">
+        <v>0.68</v>
+      </c>
+      <c r="AO12" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="AP12" s="24"/>
+    </row>
+    <row r="13" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
@@ -31861,7 +31971,7 @@
       <c r="P13" s="24">
         <v>0.95198579017695806</v>
       </c>
-      <c r="Q13" s="263">
+      <c r="Q13" s="260">
         <v>0.7</v>
       </c>
       <c r="R13" s="21">
@@ -31879,12 +31989,14 @@
       <c r="V13">
         <v>1902532</v>
       </c>
-      <c r="W13" s="264">
+      <c r="W13" s="261">
         <v>2082925</v>
       </c>
       <c r="X13" s="27"/>
       <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
+      <c r="Z13" s="21">
+        <v>0.4</v>
+      </c>
       <c r="AC13" s="35" t="s">
         <v>20</v>
       </c>
@@ -31894,14 +32006,24 @@
       <c r="AF13" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="AH13" s="261" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI13" s="262">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="14" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK13" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AM13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN13" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="AO13" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AP13" s="21"/>
+    </row>
+    <row r="14" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
@@ -31941,7 +32063,7 @@
       <c r="P14" s="24">
         <v>0.75529071602506859</v>
       </c>
-      <c r="Q14" s="263">
+      <c r="Q14" s="260">
         <v>0.7</v>
       </c>
       <c r="R14" s="21">
@@ -31959,12 +32081,14 @@
       <c r="V14">
         <v>520000</v>
       </c>
-      <c r="W14" s="264">
+      <c r="W14" s="261">
         <v>276792</v>
       </c>
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
+      <c r="Z14" s="24">
+        <v>0.9</v>
+      </c>
       <c r="AC14" s="35" t="s">
         <v>33</v>
       </c>
@@ -31972,14 +32096,24 @@
       <c r="AF14" s="259" t="s">
         <v>27</v>
       </c>
-      <c r="AH14" s="261" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI14" s="262">
+      <c r="AJ14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK14" s="24">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="15" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN14" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="AO14" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AP14" s="24"/>
+    </row>
+    <row r="15" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
@@ -32019,7 +32153,7 @@
       <c r="P15" s="24">
         <v>0.93199707771438822</v>
       </c>
-      <c r="Q15" s="263">
+      <c r="Q15" s="260">
         <v>0.7</v>
       </c>
       <c r="R15" s="21">
@@ -32037,12 +32171,14 @@
       <c r="V15">
         <v>750373</v>
       </c>
-      <c r="W15" s="264">
+      <c r="W15" s="261">
         <v>733250</v>
       </c>
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
+      <c r="Z15" s="21">
+        <v>0.95</v>
+      </c>
       <c r="AC15" s="35" t="s">
         <v>21</v>
       </c>
@@ -32052,14 +32188,24 @@
       <c r="AF15" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="AH15" s="261" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI15" s="262">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK15" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="AM15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN15" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AO15" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="AP15" s="21"/>
+    </row>
+    <row r="16" spans="4:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="11" t="s">
         <v>14</v>
       </c>
@@ -32099,7 +32245,7 @@
       <c r="P16" s="24">
         <v>0.93899378690959279</v>
       </c>
-      <c r="Q16" s="263">
+      <c r="Q16" s="260">
         <v>0.82</v>
       </c>
       <c r="R16" s="21">
@@ -32117,12 +32263,14 @@
       <c r="V16">
         <v>2344157</v>
       </c>
-      <c r="W16" s="264">
+      <c r="W16" s="261">
         <v>1860422</v>
       </c>
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
+      <c r="Z16" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="AC16" s="35" t="s">
         <v>14</v>
       </c>
@@ -32132,14 +32280,24 @@
       <c r="AF16" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AH16" s="261" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI16" s="262">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN16" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="AO16" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="AP16" s="21"/>
+    </row>
+    <row r="17" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
@@ -32179,7 +32337,7 @@
       <c r="P17" s="24">
         <v>0.91605446244129962</v>
       </c>
-      <c r="Q17" s="263">
+      <c r="Q17" s="260">
         <v>0.86</v>
       </c>
       <c r="R17" s="21">
@@ -32197,12 +32355,14 @@
       <c r="V17">
         <v>3256524</v>
       </c>
-      <c r="W17" s="264">
+      <c r="W17" s="261">
         <v>2743425</v>
       </c>
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
+      <c r="Z17" s="21">
+        <v>0.7</v>
+      </c>
       <c r="AC17" s="35" t="s">
         <v>17</v>
       </c>
@@ -32212,14 +32372,24 @@
       <c r="AF17" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="AH17" s="261" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI17" s="262">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK17" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="AM17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN17" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AO17" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="AP17" s="21"/>
+    </row>
+    <row r="18" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
@@ -32259,7 +32429,7 @@
       <c r="P18" s="24">
         <v>0.89518719707983885</v>
       </c>
-      <c r="Q18" s="263">
+      <c r="Q18" s="260">
         <v>0.84</v>
       </c>
       <c r="R18" s="21">
@@ -32277,12 +32447,14 @@
       <c r="V18">
         <v>3645265</v>
       </c>
-      <c r="W18" s="264">
+      <c r="W18" s="261">
         <v>2864761</v>
       </c>
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
+      <c r="Z18" s="24">
+        <v>0.85</v>
+      </c>
       <c r="AC18" s="35" t="s">
         <v>25</v>
       </c>
@@ -32292,14 +32464,20 @@
       <c r="AF18" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AH18" s="261" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI18" s="262">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK18" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="AM18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+    </row>
+    <row r="19" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
@@ -32339,7 +32517,7 @@
       <c r="P19" s="24">
         <v>0.85601541166579653</v>
       </c>
-      <c r="Q19" s="263">
+      <c r="Q19" s="260">
         <v>0.94</v>
       </c>
       <c r="R19" s="21">
@@ -32357,12 +32535,14 @@
       <c r="V19">
         <v>2100000</v>
       </c>
-      <c r="W19" s="264">
+      <c r="W19" s="261">
         <v>2015930</v>
       </c>
       <c r="X19" s="117"/>
       <c r="Y19" s="197"/>
-      <c r="Z19" s="197"/>
+      <c r="Z19" s="21">
+        <v>0</v>
+      </c>
       <c r="AC19" s="193" t="s">
         <v>18</v>
       </c>
@@ -32372,19 +32552,25 @@
       <c r="AF19" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="AH19" s="261" t="s">
+      <c r="AJ19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AI19" s="262">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AK19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+    </row>
+    <row r="20" spans="3:42" x14ac:dyDescent="0.25">
       <c r="R20" s="199"/>
       <c r="AC20" s="193"/>
       <c r="AD20" s="27"/>
     </row>
-    <row r="22" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="11">
         <v>1</v>
       </c>
@@ -32428,26 +32614,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="E23" s="290" t="s">
+    <row r="23" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="E23" s="277" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="291"/>
-      <c r="G23" s="291"/>
-      <c r="H23" s="291"/>
-      <c r="I23" s="292"/>
-      <c r="J23" s="281" t="s">
+      <c r="F23" s="278"/>
+      <c r="G23" s="278"/>
+      <c r="H23" s="278"/>
+      <c r="I23" s="279"/>
+      <c r="J23" s="280" t="s">
         <v>203</v>
       </c>
-      <c r="K23" s="282"/>
-      <c r="L23" s="283"/>
-      <c r="M23" s="284" t="s">
+      <c r="K23" s="281"/>
+      <c r="L23" s="282"/>
+      <c r="M23" s="283" t="s">
         <v>204</v>
       </c>
-      <c r="N23" s="285"/>
-      <c r="O23" s="286"/>
-    </row>
-    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="N23" s="284"/>
+      <c r="O23" s="285"/>
+    </row>
+    <row r="24" spans="3:42" x14ac:dyDescent="0.25">
       <c r="E24" s="214">
         <v>0.06</v>
       </c>
@@ -32482,7 +32668,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="3:35" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:42" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="202"/>
       <c r="I25" s="203"/>
       <c r="J25" s="202"/>
@@ -32490,7 +32676,7 @@
       <c r="M25" s="202"/>
       <c r="O25" s="203"/>
     </row>
-    <row r="26" spans="3:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:42" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="161" t="s">
         <v>205</v>
       </c>
@@ -32537,7 +32723,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C27" s="28">
         <v>1</v>
       </c>
@@ -32584,7 +32770,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C28" s="28">
         <v>2</v>
       </c>
@@ -32631,7 +32817,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C29" s="28">
         <v>3</v>
       </c>
@@ -32678,7 +32864,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C30" s="28">
         <v>4</v>
       </c>
@@ -32725,7 +32911,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C31" s="28">
         <v>5</v>
       </c>
@@ -32772,7 +32958,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C32" s="28">
         <v>6</v>
       </c>
@@ -33207,23 +33393,23 @@
     </row>
     <row r="46" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E47" s="290" t="s">
+      <c r="E47" s="277" t="s">
         <v>225</v>
       </c>
-      <c r="F47" s="291"/>
-      <c r="G47" s="291"/>
-      <c r="H47" s="291"/>
-      <c r="I47" s="292"/>
-      <c r="J47" s="281" t="s">
+      <c r="F47" s="278"/>
+      <c r="G47" s="278"/>
+      <c r="H47" s="278"/>
+      <c r="I47" s="279"/>
+      <c r="J47" s="280" t="s">
         <v>203</v>
       </c>
-      <c r="K47" s="282"/>
-      <c r="L47" s="283"/>
-      <c r="M47" s="284" t="s">
+      <c r="K47" s="281"/>
+      <c r="L47" s="282"/>
+      <c r="M47" s="283" t="s">
         <v>226</v>
       </c>
-      <c r="N47" s="285"/>
-      <c r="O47" s="286"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="285"/>
       <c r="P47" s="235" t="s">
         <v>173</v>
       </c>
@@ -33386,16 +33572,16 @@
       <c r="H56" s="289"/>
       <c r="I56" s="289"/>
       <c r="J56" s="289"/>
-      <c r="K56" s="281" t="s">
+      <c r="K56" s="280" t="s">
         <v>203</v>
       </c>
-      <c r="L56" s="282"/>
-      <c r="M56" s="283"/>
-      <c r="N56" s="284" t="s">
+      <c r="L56" s="281"/>
+      <c r="M56" s="282"/>
+      <c r="N56" s="283" t="s">
         <v>226</v>
       </c>
-      <c r="O56" s="285"/>
-      <c r="P56" s="286"/>
+      <c r="O56" s="284"/>
+      <c r="P56" s="285"/>
       <c r="Q56" s="235" t="s">
         <v>173</v>
       </c>
@@ -33460,10 +33646,10 @@
       <c r="H59" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="280" t="s">
+      <c r="I59" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="280"/>
+      <c r="J59" s="286"/>
       <c r="K59" s="204" t="s">
         <v>7</v>
       </c>
@@ -33538,148 +33724,148 @@
     <sortCondition ref="AC5:AC21"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E56:J56"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="J47:L47"/>
     <mergeCell ref="M47:O47"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E56:J56"/>
   </mergeCells>
   <conditionalFormatting sqref="E27:E29 E31:E32">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H40">
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I38">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M38">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:N32">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N36">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O36">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O36">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P19">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P40">
-    <cfRule type="cellIs" dxfId="7" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="34" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36264,21 +36450,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:M17 E18:M18">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>0.99</formula>
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:N54">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36287,15 +36473,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
@@ -36304,6 +36481,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36542,14 +36728,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834DA8F5-60A1-4558-9A54-21F8114614ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8AA903F-84BC-4B1C-9BC3-FB43A782A246}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -36562,6 +36740,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834DA8F5-60A1-4558-9A54-21F8114614ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
